--- a/zew.xlsx
+++ b/zew.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a5ecdb18176a515a/Desktop/Master_Thesis/Opinion_Dynamics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{E4345BC3-8D69-4800-90A2-2FE0E6AB47BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA43608B-0DC3-4ED2-A6B9-C65909D07350}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{E4345BC3-8D69-4800-90A2-2FE0E6AB47BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{130C3EE8-8BD0-461E-BCC1-6782F84CA878}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{843B7323-F2D3-4455-B337-1192C92C6879}"/>
   </bookViews>
@@ -34,32 +34,18 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>ZEW Indicator of Economic Sentiment Germany, balances</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -87,12 +73,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -408,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE2DD37-FF2A-4BB4-8581-056A2D1478DE}">
-  <dimension ref="A1:B368"/>
+  <dimension ref="A1:B367"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A165" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178:B368"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="G173" sqref="G173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -419,1804 +402,1790 @@
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="66.599999999999994" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>-59</v>
+      </c>
+      <c r="B1">
+        <f>A1/100</f>
+        <v>-0.59</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>-59</v>
+        <v>-49.2</v>
       </c>
       <c r="B2">
-        <f>A2/100</f>
-        <v>-0.59</v>
+        <f t="shared" ref="B2:B65" si="0">A2/100</f>
+        <v>-0.49200000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>-49.2</v>
+        <v>-41.1</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B66" si="0">A3/100</f>
-        <v>-0.49200000000000005</v>
+        <f t="shared" si="0"/>
+        <v>-0.41100000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>-41.1</v>
+        <v>-41.7</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
-        <v>-0.41100000000000003</v>
+        <v>-0.41700000000000004</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>-41.7</v>
+        <v>-26.5</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
-        <v>-0.41700000000000004</v>
+        <v>-0.26500000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>-26.5</v>
+        <v>-4</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
-        <v>-0.26500000000000001</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>-4</v>
+        <v>3.2</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
-        <v>-0.04</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>3.2</v>
+        <v>-5.6</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
-        <v>3.2000000000000001E-2</v>
+        <v>-5.5999999999999994E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>-5.6</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
-        <v>-5.5999999999999994E-2</v>
+        <v>-0.36799999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>-36.799999999999997</v>
+        <v>-32.1</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
-        <v>-0.36799999999999999</v>
+        <v>-0.32100000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>-32.1</v>
+        <v>-53.9</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
-        <v>-0.32100000000000001</v>
+        <v>-0.53900000000000003</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>-53.9</v>
+        <v>-59.3</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
-        <v>-0.53900000000000003</v>
+        <v>-0.59299999999999997</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>-59.3</v>
+        <v>-62.2</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
-        <v>-0.59299999999999997</v>
+        <v>-0.622</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>-62.2</v>
+        <v>-49.7</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
-        <v>-0.622</v>
+        <v>-0.49700000000000005</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>-49.7</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
-        <v>-0.49700000000000005</v>
+        <v>-0.36799999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>-36.799999999999997</v>
+        <v>-29.4</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
-        <v>-0.36799999999999999</v>
+        <v>-0.29399999999999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>-29.4</v>
+        <v>-24.1</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
-        <v>-0.29399999999999998</v>
+        <v>-0.24100000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>-24.1</v>
+        <v>-14</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>-0.24100000000000002</v>
+        <v>-0.14000000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>-14</v>
+        <v>-7.6</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>-0.14000000000000001</v>
+        <v>-7.5999999999999998E-2</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>-7.6</v>
+        <v>24.3</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>-7.5999999999999998E-2</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>24.3</v>
+        <v>26.8</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>0.24299999999999999</v>
+        <v>0.26800000000000002</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>26.8</v>
+        <v>29.6</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>0.26800000000000002</v>
+        <v>0.29600000000000004</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>29.6</v>
+        <v>31.1</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>0.29600000000000004</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>31.1</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>0.311</v>
+        <v>0.19600000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>19.600000000000001</v>
+        <v>29.6</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0.19600000000000001</v>
+        <v>0.29600000000000004</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>29.6</v>
+        <v>37.200000000000003</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>0.29600000000000004</v>
+        <v>0.37200000000000005</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>37.200000000000003</v>
+        <v>44</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>0.37200000000000005</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>44</v>
+        <v>61.7</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>0.44</v>
+        <v>0.61699999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>61.7</v>
+        <v>78.5</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>0.61699999999999999</v>
+        <v>0.78500000000000003</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>78.5</v>
+        <v>86.4</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>0.78500000000000003</v>
+        <v>0.8640000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>86.4</v>
+        <v>83.4</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
-        <v>0.8640000000000001</v>
+        <v>0.83400000000000007</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>83.4</v>
+        <v>80.599999999999994</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
-        <v>0.83400000000000007</v>
+        <v>0.80599999999999994</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>80.599999999999994</v>
+        <v>87.9</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
-        <v>0.80599999999999994</v>
+        <v>0.879</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>87.9</v>
+        <v>79.7</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
-        <v>0.879</v>
+        <v>0.79700000000000004</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>79.7</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
-        <v>0.79700000000000004</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>74.599999999999994</v>
+        <v>74.5</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
-        <v>0.746</v>
+        <v>0.745</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>74.5</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
-        <v>0.745</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>75</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>0.7659999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>76.599999999999994</v>
+        <v>67.3</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
-        <v>0.7659999999999999</v>
+        <v>0.67299999999999993</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>67.3</v>
+        <v>30.8</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
-        <v>0.67299999999999993</v>
+        <v>0.308</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>30.8</v>
+        <v>11.1</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
-        <v>0.308</v>
+        <v>0.111</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>11.1</v>
+        <v>11.5</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
-        <v>0.111</v>
+        <v>0.115</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>11.5</v>
+        <v>6</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
-        <v>0.115</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>6</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>9.8000000000000007</v>
+        <v>14.1</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
-        <v>9.8000000000000004E-2</v>
+        <v>0.14099999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>14.1</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
-        <v>0.14099999999999999</v>
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>17.399999999999999</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
-        <v>0.17399999999999999</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>9.8000000000000007</v>
+        <v>-6.5</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
-        <v>9.8000000000000004E-2</v>
+        <v>-6.5000000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>-6.5</v>
+        <v>-9.1</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
-        <v>-6.5000000000000002E-2</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>-9.1</v>
+        <v>8.4</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
-        <v>-9.0999999999999998E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>8.4</v>
+        <v>19.5</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
-        <v>8.4000000000000005E-2</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>19.5</v>
+        <v>31.5</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
-        <v>0.19500000000000001</v>
+        <v>0.315</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>31.5</v>
+        <v>44.9</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
-        <v>0.315</v>
+        <v>0.44900000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>44.9</v>
+        <v>54.8</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
-        <v>0.44900000000000001</v>
+        <v>0.54799999999999993</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>54.8</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
-        <v>0.54799999999999993</v>
+        <v>0.65099999999999991</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>65.099999999999994</v>
+        <v>66.400000000000006</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
-        <v>0.65099999999999991</v>
+        <v>0.66400000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>66.400000000000006</v>
+        <v>62.2</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
-        <v>0.66400000000000003</v>
+        <v>0.622</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>62.2</v>
+        <v>71</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
-        <v>0.622</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>71</v>
+        <v>76.2</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
-        <v>0.71</v>
+        <v>0.76200000000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>76.2</v>
+        <v>74.599999999999994</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
-        <v>0.76200000000000001</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>74.599999999999994</v>
+        <v>69.3</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
-        <v>0.746</v>
+        <v>0.69299999999999995</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>69.3</v>
+        <v>70.8</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
-        <v>0.69299999999999995</v>
+        <v>0.70799999999999996</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>70.8</v>
+        <v>62.3</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
-        <v>0.70799999999999996</v>
+        <v>0.623</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>62.3</v>
+        <v>65.7</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
-        <v>0.623</v>
+        <v>0.65700000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>65.7</v>
+        <v>73</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
-        <v>0.65700000000000003</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>73</v>
+        <v>70.099999999999994</v>
       </c>
       <c r="B66">
-        <f t="shared" si="0"/>
-        <v>0.73</v>
+        <f t="shared" ref="B66:B129" si="1">A66/100</f>
+        <v>0.70099999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>70.099999999999994</v>
+        <v>68.099999999999994</v>
       </c>
       <c r="B67">
-        <f t="shared" ref="B67:B130" si="1">A67/100</f>
-        <v>0.70099999999999996</v>
+        <f t="shared" si="1"/>
+        <v>0.68099999999999994</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>68.099999999999994</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
-        <v>0.68099999999999994</v>
+        <v>0.66900000000000004</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>66.900000000000006</v>
+        <v>66.3</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
-        <v>0.66900000000000004</v>
+        <v>0.66299999999999992</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>66.3</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
-        <v>0.66299999999999992</v>
+        <v>0.71900000000000008</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>71.900000000000006</v>
+        <v>78.099999999999994</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
-        <v>0.71900000000000008</v>
+        <v>0.78099999999999992</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>78.099999999999994</v>
+        <v>68.3</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
-        <v>0.78099999999999992</v>
+        <v>0.68299999999999994</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>68.3</v>
+        <v>61.9</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
-        <v>0.68299999999999994</v>
+        <v>0.61899999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>61.9</v>
+        <v>49.9</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
-        <v>0.61899999999999999</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>49.9</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
-        <v>0.499</v>
+        <v>0.40700000000000003</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>40.700000000000003</v>
+        <v>51</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
-        <v>0.40700000000000003</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>51</v>
+        <v>63.6</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
-        <v>0.51</v>
+        <v>0.63600000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>63.6</v>
+        <v>64.2</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
-        <v>0.63600000000000001</v>
+        <v>0.64200000000000002</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>64.2</v>
+        <v>68.7</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
-        <v>0.64200000000000002</v>
+        <v>0.68700000000000006</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>68.7</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
-        <v>0.68700000000000006</v>
+        <v>0.68400000000000005</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>68.400000000000006</v>
+        <v>58.1</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
-        <v>0.68400000000000005</v>
+        <v>0.58099999999999996</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>58.1</v>
+        <v>22.8</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
-        <v>0.58099999999999996</v>
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>22.8</v>
+        <v>-6.2</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
-        <v>0.22800000000000001</v>
+        <v>-6.2E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>-6.2</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
-        <v>-6.2E-2</v>
+        <v>-0.17899999999999999</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>-17.899999999999999</v>
+        <v>-24.9</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
-        <v>-0.17899999999999999</v>
+        <v>-0.249</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>-24.9</v>
+        <v>-25.1</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
-        <v>-0.249</v>
+        <v>-0.251</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>-25.1</v>
+        <v>-6.6</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
-        <v>-0.251</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>-6.6</v>
+        <v>9.1999999999999993</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
-        <v>-6.6000000000000003E-2</v>
+        <v>9.1999999999999998E-2</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>9.1999999999999993</v>
+        <v>30.3</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
-        <v>9.1999999999999998E-2</v>
+        <v>0.30299999999999999</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>30.3</v>
+        <v>45.1</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
-        <v>0.30299999999999999</v>
+        <v>0.45100000000000001</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>45.1</v>
+        <v>56.4</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
-        <v>0.45100000000000001</v>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>56.4</v>
+        <v>74.3</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
-        <v>0.56399999999999995</v>
+        <v>0.74299999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>74.3</v>
+        <v>74</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
-        <v>0.74299999999999999</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>74</v>
+        <v>80.7</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
-        <v>0.74</v>
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>80.7</v>
+        <v>82.4</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
-        <v>0.80700000000000005</v>
+        <v>0.82400000000000007</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>82.4</v>
+        <v>84.5</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
-        <v>0.82400000000000007</v>
+        <v>0.84499999999999997</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>84.5</v>
+        <v>84.4</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
-        <v>0.84499999999999997</v>
+        <v>0.84400000000000008</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>84.4</v>
+        <v>89.6</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
-        <v>0.84400000000000008</v>
+        <v>0.89599999999999991</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>89.6</v>
+        <v>85.5</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
-        <v>0.89599999999999991</v>
+        <v>0.85499999999999998</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100">
-        <v>85.5</v>
+        <v>83.7</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
-        <v>0.85499999999999998</v>
+        <v>0.83700000000000008</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101">
-        <v>83.7</v>
+        <v>83</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
-        <v>0.83700000000000008</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103">
-        <v>81</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
-        <v>0.81</v>
+        <v>0.77099999999999991</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104">
-        <v>77.099999999999994</v>
+        <v>71.900000000000006</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
-        <v>0.77099999999999991</v>
+        <v>0.71900000000000008</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105">
-        <v>71.900000000000006</v>
+        <v>67.7</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
-        <v>0.71900000000000008</v>
+        <v>0.67700000000000005</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106">
-        <v>67.7</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
-        <v>0.67700000000000005</v>
+        <v>0.40799999999999997</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107">
-        <v>40.799999999999997</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
-        <v>0.40799999999999997</v>
+        <v>0.20399999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108">
-        <v>20.399999999999999</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
-        <v>0.20399999999999999</v>
+        <v>8.6999999999999994E-2</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109">
-        <v>8.6999999999999993</v>
+        <v>-0.1</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
-        <v>8.6999999999999994E-2</v>
+        <v>-1E-3</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110">
-        <v>-0.1</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
-        <v>-1E-3</v>
+        <v>-4.4000000000000004E-2</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111">
-        <v>-4.4000000000000004</v>
+        <v>-6.1</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
-        <v>-4.4000000000000004E-2</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112">
-        <v>-6.1</v>
+        <v>-10.4</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
-        <v>-6.0999999999999999E-2</v>
+        <v>-0.10400000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113">
-        <v>-10.4</v>
+        <v>-4.5</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
-        <v>-0.10400000000000001</v>
+        <v>-4.4999999999999998E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114">
-        <v>-4.5</v>
+        <v>-4.3</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
-        <v>-4.4999999999999998E-2</v>
+        <v>-4.2999999999999997E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115">
-        <v>-4.3</v>
+        <v>-8.1</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
-        <v>-4.2999999999999997E-2</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116">
-        <v>-8.1</v>
+        <v>-1.9</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
-        <v>-8.1000000000000003E-2</v>
+        <v>-1.9E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117">
-        <v>-1.9</v>
+        <v>11.4</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
-        <v>-1.9E-2</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118">
-        <v>11.4</v>
+        <v>13.7</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
-        <v>0.114</v>
+        <v>0.13699999999999998</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119">
-        <v>13.7</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
-        <v>0.13699999999999998</v>
+        <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120">
-        <v>9.8000000000000007</v>
+        <v>13.1</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
-        <v>9.8000000000000004E-2</v>
+        <v>0.13100000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121">
-        <v>13.1</v>
+        <v>25.8</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
-        <v>0.13100000000000001</v>
+        <v>0.25800000000000001</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122">
-        <v>25.8</v>
+        <v>35.9</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
-        <v>0.25800000000000001</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123">
-        <v>35.9</v>
+        <v>50.2</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
-        <v>0.35899999999999999</v>
+        <v>0.502</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124">
-        <v>50.2</v>
+        <v>71.2</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
-        <v>0.502</v>
+        <v>0.71200000000000008</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125">
-        <v>71.2</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
-        <v>0.71200000000000008</v>
+        <v>0.70599999999999996</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126">
-        <v>70.599999999999994</v>
+        <v>66.3</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
-        <v>0.70599999999999996</v>
+        <v>0.66299999999999992</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127">
-        <v>66.3</v>
+        <v>69.599999999999994</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
-        <v>0.66299999999999992</v>
+        <v>0.69599999999999995</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128">
-        <v>69.599999999999994</v>
+        <v>69.099999999999994</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
-        <v>0.69599999999999995</v>
+        <v>0.69099999999999995</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129">
-        <v>69.099999999999994</v>
+        <v>43.4</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
-        <v>0.69099999999999995</v>
+        <v>0.434</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130">
-        <v>43.4</v>
+        <v>39.5</v>
       </c>
       <c r="B130">
-        <f t="shared" si="1"/>
-        <v>0.434</v>
+        <f t="shared" ref="B130:B175" si="2">A130/100</f>
+        <v>0.39500000000000002</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131">
-        <v>39.5</v>
+        <v>23.4</v>
       </c>
       <c r="B131">
-        <f t="shared" ref="B131:B194" si="2">A131/100</f>
-        <v>0.39500000000000002</v>
+        <f t="shared" si="2"/>
+        <v>0.23399999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132">
-        <v>23.4</v>
+        <v>4.2</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
-        <v>0.23399999999999999</v>
+        <v>4.2000000000000003E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133">
-        <v>4.2</v>
+        <v>0.6</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
-        <v>4.2000000000000003E-2</v>
+        <v>6.0000000000000001E-3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134">
-        <v>0.6</v>
+        <v>14</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
-        <v>6.0000000000000001E-3</v>
+        <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
-        <v>0.14000000000000001</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136">
-        <v>15</v>
+        <v>17.7</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
-        <v>0.15</v>
+        <v>0.17699999999999999</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137">
-        <v>17.7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
-        <v>0.17699999999999999</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138">
-        <v>18.399999999999999</v>
+        <v>18.7</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
-        <v>0.184</v>
+        <v>0.187</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139">
-        <v>18.7</v>
+        <v>21.3</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
-        <v>0.187</v>
+        <v>0.21299999999999999</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140">
-        <v>21.3</v>
+        <v>41.9</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
-        <v>0.21299999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141">
-        <v>41.9</v>
+        <v>52.5</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
-        <v>0.41899999999999998</v>
+        <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142">
-        <v>52.5</v>
+        <v>60.9</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
-        <v>0.52500000000000002</v>
+        <v>0.60899999999999999</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143">
-        <v>60.9</v>
+        <v>60.3</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
-        <v>0.60899999999999999</v>
+        <v>0.60299999999999998</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144">
-        <v>60.3</v>
+        <v>67.2</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
-        <v>0.60299999999999998</v>
+        <v>0.67200000000000004</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145">
-        <v>67.2</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
-        <v>0.67200000000000004</v>
+        <v>0.7340000000000001</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146">
-        <v>73.400000000000006</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
-        <v>0.7340000000000001</v>
+        <v>0.72900000000000009</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147">
-        <v>72.900000000000006</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
-        <v>0.72900000000000009</v>
+        <v>0.69900000000000007</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148">
-        <v>69.900000000000006</v>
+        <v>57.6</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
-        <v>0.69900000000000007</v>
+        <v>0.57600000000000007</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149">
-        <v>57.6</v>
+        <v>49.7</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
-        <v>0.57600000000000007</v>
+        <v>0.49700000000000005</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150">
-        <v>49.7</v>
+        <v>46.4</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
-        <v>0.49700000000000005</v>
+        <v>0.46399999999999997</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151">
-        <v>46.4</v>
+        <v>47.4</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
-        <v>0.46399999999999997</v>
+        <v>0.47399999999999998</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152">
-        <v>47.4</v>
+        <v>48.4</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
-        <v>0.47399999999999998</v>
+        <v>0.48399999999999999</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153">
-        <v>48.4</v>
+        <v>45.3</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
-        <v>0.48399999999999999</v>
+        <v>0.45299999999999996</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154">
-        <v>45.3</v>
+        <v>38.4</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
-        <v>0.45299999999999996</v>
+        <v>0.38400000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155">
-        <v>38.4</v>
+        <v>31.3</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
-        <v>0.38400000000000001</v>
+        <v>0.313</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156">
-        <v>31.3</v>
+        <v>13.9</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
-        <v>0.313</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157">
-        <v>13.9</v>
+        <v>14.4</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
-        <v>0.13900000000000001</v>
+        <v>0.14400000000000002</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158">
-        <v>14.4</v>
+        <v>26.9</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
-        <v>0.14400000000000002</v>
+        <v>0.26899999999999996</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159">
-        <v>26.9</v>
+        <v>35.9</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
-        <v>0.26899999999999996</v>
+        <v>0.35899999999999999</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160">
-        <v>35.9</v>
+        <v>36.299999999999997</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
-        <v>0.35899999999999999</v>
+        <v>0.36299999999999999</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161">
-        <v>36.299999999999997</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
-        <v>0.36299999999999999</v>
+        <v>0.20100000000000001</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162">
-        <v>20.100000000000001</v>
+        <v>13.9</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
-        <v>0.20100000000000001</v>
+        <v>0.13900000000000001</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163">
-        <v>13.9</v>
+        <v>19.5</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
-        <v>0.13900000000000001</v>
+        <v>0.19500000000000001</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164">
-        <v>19.5</v>
+        <v>37</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
-        <v>0.19500000000000001</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
-        <v>0.37</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166">
-        <v>50</v>
+        <v>38.6</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
-        <v>0.5</v>
+        <v>0.38600000000000001</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167">
-        <v>38.6</v>
+        <v>39.4</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
-        <v>0.38600000000000001</v>
+        <v>0.39399999999999996</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168">
-        <v>39.4</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
-        <v>0.39399999999999996</v>
+        <v>0.38700000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169">
-        <v>38.700000000000003</v>
+        <v>61.6</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
-        <v>0.38700000000000001</v>
+        <v>0.61599999999999999</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170">
-        <v>61.6</v>
+        <v>71</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
-        <v>0.61599999999999999</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171">
-        <v>71</v>
+        <v>69.8</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
-        <v>0.71</v>
+        <v>0.69799999999999995</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172">
-        <v>69.8</v>
+        <v>63.4</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
-        <v>0.69799999999999995</v>
+        <v>0.63400000000000001</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173">
-        <v>63.4</v>
+        <v>62.7</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
-        <v>0.63400000000000001</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174">
-        <v>62.7</v>
+        <v>50</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
-        <v>0.627</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175">
-        <v>50</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176">
-        <v>37.799999999999997</v>
-      </c>
-      <c r="B176">
-        <f t="shared" si="2"/>
         <v>0.37799999999999995</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177">
-        <v>15.1</v>
-      </c>
-      <c r="B177">
-        <f t="shared" si="2"/>
-        <v>0.151</v>
-      </c>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" s="1"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="2"/>
+      <c r="A299" s="1"/>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="2"/>
+      <c r="A300" s="1"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="2"/>
+      <c r="A301" s="1"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" s="2"/>
+      <c r="A302" s="1"/>
     </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="2"/>
+      <c r="A303" s="1"/>
     </row>
     <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="2"/>
+      <c r="A304" s="1"/>
     </row>
     <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="2"/>
+      <c r="A305" s="1"/>
     </row>
     <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="2"/>
+      <c r="A306" s="1"/>
     </row>
     <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="2"/>
+      <c r="A307" s="1"/>
     </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="2"/>
+      <c r="A308" s="1"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="2"/>
+      <c r="A309" s="1"/>
     </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="2"/>
+      <c r="A310" s="1"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" s="2"/>
+      <c r="A311" s="1"/>
     </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" s="2"/>
+      <c r="A312" s="1"/>
     </row>
     <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="2"/>
+      <c r="A313" s="1"/>
     </row>
     <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" s="2"/>
+      <c r="A314" s="1"/>
     </row>
     <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" s="2"/>
+      <c r="A315" s="1"/>
     </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="2"/>
+      <c r="A316" s="1"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" s="2"/>
+      <c r="A317" s="1"/>
     </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" s="2"/>
+      <c r="A318" s="1"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" s="2"/>
+      <c r="A319" s="1"/>
     </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" s="2"/>
+      <c r="A320" s="1"/>
     </row>
     <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="2"/>
+      <c r="A321" s="1"/>
     </row>
     <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" s="2"/>
+      <c r="A322" s="1"/>
     </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" s="2"/>
+      <c r="A323" s="1"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" s="2"/>
+      <c r="A324" s="1"/>
     </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" s="2"/>
+      <c r="A325" s="1"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" s="2"/>
+      <c r="A326" s="1"/>
     </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" s="2"/>
+      <c r="A327" s="1"/>
     </row>
     <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" s="2"/>
+      <c r="A328" s="1"/>
     </row>
     <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="2"/>
+      <c r="A329" s="1"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" s="2"/>
+      <c r="A330" s="1"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" s="2"/>
+      <c r="A331" s="1"/>
     </row>
     <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="2"/>
+      <c r="A332" s="1"/>
     </row>
     <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="2"/>
+      <c r="A333" s="1"/>
     </row>
     <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="2"/>
+      <c r="A334" s="1"/>
     </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" s="2"/>
+      <c r="A335" s="1"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" s="2"/>
+      <c r="A336" s="1"/>
     </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" s="2"/>
+      <c r="A337" s="1"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" s="2"/>
+      <c r="A338" s="1"/>
     </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" s="2"/>
+      <c r="A339" s="1"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" s="2"/>
+      <c r="A340" s="1"/>
     </row>
     <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" s="2"/>
+      <c r="A341" s="1"/>
     </row>
     <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" s="2"/>
+      <c r="A342" s="1"/>
     </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" s="2"/>
+      <c r="A343" s="1"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" s="2"/>
+      <c r="A344" s="1"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" s="2"/>
+      <c r="A345" s="1"/>
     </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" s="2"/>
+      <c r="A346" s="1"/>
     </row>
     <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" s="2"/>
+      <c r="A347" s="1"/>
     </row>
     <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" s="2"/>
+      <c r="A348" s="1"/>
     </row>
     <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" s="2"/>
+      <c r="A349" s="1"/>
     </row>
     <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" s="2"/>
+      <c r="A350" s="1"/>
     </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" s="2"/>
+      <c r="A351" s="1"/>
     </row>
     <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" s="2"/>
+      <c r="A352" s="1"/>
     </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" s="2"/>
+      <c r="A353" s="1"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" s="2"/>
+      <c r="A354" s="1"/>
     </row>
     <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" s="2"/>
+      <c r="A355" s="1"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" s="2"/>
+      <c r="A356" s="1"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" s="2"/>
+      <c r="A357" s="1"/>
     </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" s="2"/>
+      <c r="A358" s="1"/>
     </row>
     <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" s="2"/>
+      <c r="A359" s="1"/>
     </row>
     <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" s="2"/>
+      <c r="A360" s="1"/>
     </row>
     <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" s="2"/>
+      <c r="A361" s="1"/>
     </row>
     <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" s="2"/>
+      <c r="A362" s="1"/>
     </row>
     <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" s="2"/>
+      <c r="A363" s="1"/>
     </row>
     <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" s="2"/>
+      <c r="A364" s="1"/>
     </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" s="2"/>
+      <c r="A365" s="1"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" s="2"/>
+      <c r="A366" s="1"/>
     </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A367" s="2"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
